--- a/data/trans_orig/IP39B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP39B-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0C7C50F-15C7-4DC0-A635-6FD7677FBCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19085E63-66C8-4FA2-BB28-B5A5215CAC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9A65A83E-0B95-496F-A697-5E6C85E903F3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{27E6E48B-DB1F-4CF6-886A-B26BFEB579B8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="426">
   <si>
     <t>Adulto según el número de personas que trabajan bajo su responsabilidad en 2007 (Tasa respuesta: 53,99%)</t>
   </si>
@@ -97,13 +97,13 @@
     <t>4,26%</t>
   </si>
   <si>
-    <t>12,93%</t>
+    <t>12,9%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>11,6%</t>
+    <t>13,98%</t>
   </si>
   <si>
     <t>3,34%</t>
@@ -112,7 +112,7 @@
     <t>1,07%</t>
   </si>
   <si>
-    <t>8,75%</t>
+    <t>9,01%</t>
   </si>
   <si>
     <t>De 1 a 5</t>
@@ -121,25 +121,25 @@
     <t>6,02%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>11,17%</t>
+    <t>11,81%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
   </si>
   <si>
     <t>Ninguna</t>
@@ -148,16 +148,16 @@
     <t>89,73%</t>
   </si>
   <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
   </si>
   <si>
     <t>95,52%</t>
   </si>
   <si>
-    <t>86,45%</t>
+    <t>86,02%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -166,10 +166,10 @@
     <t>92,56%</t>
   </si>
   <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -184,13 +184,13 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>2,04%</t>
+    <t>2,35%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,46%</t>
+    <t>1,75%</t>
   </si>
   <si>
     <t>0,54%</t>
@@ -199,1120 +199,1123 @@
     <t>0,13%</t>
   </si>
   <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adulto según el número de personas que trabajan bajo su responsabilidad en 2012 (Tasa respuesta: 44,59%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>Adulto según el número de personas que trabajan bajo su responsabilidad en 2016 (Tasa respuesta: 49,11%)</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
   </si>
   <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adulto según el número de personas que trabajan bajo su responsabilidad en 2012 (Tasa respuesta: 44,59%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>Adulto según el número de personas que trabajan bajo su responsabilidad en 2015 (Tasa respuesta: 49,11%)</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
+    <t>3,54%</t>
   </si>
   <si>
     <t>8,45%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
   </si>
   <si>
     <t>9,73%</t>
   </si>
   <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
   </si>
   <si>
     <t>86,09%</t>
   </si>
   <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
   </si>
   <si>
     <t>85,02%</t>
   </si>
   <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
   </si>
   <si>
     <t>85,58%</t>
   </si>
   <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
   </si>
 </sst>
 </file>
@@ -1724,7 +1727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A57F5F3-7C03-476A-AE76-6264FCFACF03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D99A0B-F486-435F-8414-4658AD2583D9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2064,7 +2067,7 @@
         <v>44</v>
       </c>
       <c r="I8" s="7">
-        <v>29416</v>
+        <v>29417</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>38</v>
@@ -2115,7 +2118,7 @@
         <v>46</v>
       </c>
       <c r="I9" s="7">
-        <v>30796</v>
+        <v>30797</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>44</v>
@@ -2261,10 +2264,10 @@
         <v>63</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -2273,13 +2276,13 @@
         <v>3595</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -2288,13 +2291,13 @@
         <v>7547</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,13 +2312,13 @@
         <v>31384</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -2324,13 +2327,13 @@
         <v>33109</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M13" s="7">
         <v>97</v>
@@ -2339,13 +2342,13 @@
         <v>64493</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2363,13 @@
         <v>202484</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>262</v>
@@ -2375,13 +2378,13 @@
         <v>172291</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>568</v>
@@ -2390,13 +2393,13 @@
         <v>374774</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,7 +2455,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2464,13 +2467,13 @@
         <v>2030</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2479,13 +2482,13 @@
         <v>2134</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -2494,13 +2497,13 @@
         <v>4164</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,10 +2518,10 @@
         <v>2647</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>99</v>
@@ -2599,10 +2602,10 @@
         <v>112</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,13 +2620,13 @@
         <v>21394</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -2632,13 +2635,13 @@
         <v>24108</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -2647,13 +2650,13 @@
         <v>45501</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,13 +2671,13 @@
         <v>84066</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>131</v>
@@ -2683,13 +2686,13 @@
         <v>90053</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>257</v>
@@ -2698,13 +2701,13 @@
         <v>174118</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,13 +2775,13 @@
         <v>3886</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2787,13 +2790,13 @@
         <v>2755</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -2802,13 +2805,13 @@
         <v>6641</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,13 +2826,13 @@
         <v>6686</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -2838,13 +2841,13 @@
         <v>7230</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -2853,13 +2856,13 @@
         <v>13915</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,13 +2877,13 @@
         <v>9039</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -2889,13 +2892,13 @@
         <v>8676</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
@@ -2904,13 +2907,13 @@
         <v>17715</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,13 +2928,13 @@
         <v>54714</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H25" s="7">
         <v>87</v>
@@ -2940,10 +2943,10 @@
         <v>57863</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>159</v>
@@ -3087,7 +3090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7158DC9-303E-4F19-BF04-F15401FCDE1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5377D8B-CF9F-442B-B48D-A4FB9CDCF0B1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3241,13 +3244,13 @@
         <v>595</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,7 +3286,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3298,7 +3301,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,7 +3337,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3349,7 +3352,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,13 +3367,13 @@
         <v>2436</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3379,13 +3382,13 @@
         <v>1955</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -3394,13 +3397,13 @@
         <v>4391</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +3418,13 @@
         <v>18984</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>34</v>
@@ -3430,13 +3433,13 @@
         <v>24110</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>61</v>
@@ -3445,13 +3448,13 @@
         <v>43094</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,13 +3522,13 @@
         <v>1704</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3534,13 +3537,13 @@
         <v>627</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3549,13 +3552,13 @@
         <v>2332</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>202</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,13 +3573,13 @@
         <v>2424</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -3585,13 +3588,13 @@
         <v>1395</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -3600,13 +3603,13 @@
         <v>3819</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,13 +3624,13 @@
         <v>7496</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -3636,10 +3639,10 @@
         <v>2920</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>56</v>
@@ -3651,13 +3654,13 @@
         <v>10416</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>217</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,13 +3675,13 @@
         <v>21088</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -3687,13 +3690,13 @@
         <v>18104</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -3702,13 +3705,13 @@
         <v>39192</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3726,13 @@
         <v>172099</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>240</v>
@@ -3738,13 +3741,13 @@
         <v>164879</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>484</v>
@@ -3753,13 +3756,13 @@
         <v>336978</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,7 +3818,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3827,13 +3830,13 @@
         <v>4003</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3842,13 +3845,13 @@
         <v>2755</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -3857,13 +3860,13 @@
         <v>6757</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,13 +3881,13 @@
         <v>2740</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3893,13 +3896,13 @@
         <v>656</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -3908,13 +3911,13 @@
         <v>3396</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,13 +3932,13 @@
         <v>1906</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -3944,13 +3947,13 @@
         <v>7193</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M18" s="7">
         <v>13</v>
@@ -3959,13 +3962,13 @@
         <v>9099</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +3983,13 @@
         <v>16755</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -3995,13 +3998,13 @@
         <v>20139</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>53</v>
@@ -4010,13 +4013,13 @@
         <v>36894</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4034,13 @@
         <v>82956</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>102</v>
@@ -4046,13 +4049,13 @@
         <v>71973</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>220</v>
@@ -4061,13 +4064,13 @@
         <v>154929</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4138,13 @@
         <v>5707</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -4150,13 +4153,13 @@
         <v>3977</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -4165,13 +4168,13 @@
         <v>9684</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>139</v>
+        <v>276</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4189,13 @@
         <v>5164</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -4201,13 +4204,13 @@
         <v>2051</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -4216,13 +4219,13 @@
         <v>7215</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4240,13 @@
         <v>9402</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>288</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>95</v>
+        <v>286</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
@@ -4252,13 +4255,13 @@
         <v>10114</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M24" s="7">
         <v>29</v>
@@ -4267,13 +4270,13 @@
         <v>19515</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4291,13 @@
         <v>40279</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H25" s="7">
         <v>59</v>
@@ -4303,13 +4306,13 @@
         <v>40198</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M25" s="7">
         <v>117</v>
@@ -4318,13 +4321,13 @@
         <v>80477</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4342,13 @@
         <v>274039</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H26" s="7">
         <v>376</v>
@@ -4354,13 +4357,13 @@
         <v>260962</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M26" s="7">
         <v>765</v>
@@ -4369,13 +4372,13 @@
         <v>535001</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,7 +4453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4520BD03-784D-49EF-B11F-6543FB5EF5B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AD31D8-F78D-4184-AFF7-D7C62B38044C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4467,7 +4470,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4580,7 +4583,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4595,7 +4598,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4631,7 +4634,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4640,13 +4643,13 @@
         <v>540</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>121</v>
+        <v>314</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4655,13 +4658,13 @@
         <v>540</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,7 +4685,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4691,13 +4694,13 @@
         <v>564</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4706,13 +4709,13 @@
         <v>564</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4730,13 @@
         <v>1192</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4748,7 +4751,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4757,13 +4760,13 @@
         <v>1192</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,10 +4781,10 @@
         <v>18271</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>40</v>
@@ -4793,10 +4796,10 @@
         <v>11700</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>40</v>
@@ -4808,13 +4811,13 @@
         <v>29971</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,7 +4891,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4897,13 +4900,13 @@
         <v>722</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>332</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4918,7 +4921,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>333</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4936,13 @@
         <v>1128</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>334</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -4948,13 +4951,13 @@
         <v>753</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>333</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -4963,13 +4966,13 @@
         <v>1881</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>204</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,13 +4987,13 @@
         <v>6741</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>139</v>
+        <v>338</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4999,13 +5002,13 @@
         <v>2758</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>134</v>
+        <v>331</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -5014,13 +5017,13 @@
         <v>9499</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>339</v>
+        <v>133</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>279</v>
+        <v>342</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>340</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,13 +5038,13 @@
         <v>17407</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -5050,13 +5053,13 @@
         <v>18639</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -5065,13 +5068,13 @@
         <v>36046</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>241</v>
+        <v>350</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,13 +5089,13 @@
         <v>200913</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H14" s="7">
         <v>283</v>
@@ -5101,13 +5104,13 @@
         <v>187219</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M14" s="7">
         <v>569</v>
@@ -5116,13 +5119,13 @@
         <v>388133</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,7 +5181,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5193,10 +5196,10 @@
         <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5205,13 +5208,13 @@
         <v>2072</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>361</v>
+        <v>245</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -5223,10 +5226,10 @@
         <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5244,13 @@
         <v>3023</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>64</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>26</v>
+        <v>367</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -5256,13 +5259,13 @@
         <v>2458</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -5271,13 +5274,13 @@
         <v>5480</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,13 +5295,13 @@
         <v>4680</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>60</v>
+        <v>373</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -5307,13 +5310,13 @@
         <v>3066</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -5322,13 +5325,13 @@
         <v>7747</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>374</v>
+        <v>153</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5346,13 @@
         <v>12834</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -5358,13 +5361,13 @@
         <v>18861</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -5373,13 +5376,13 @@
         <v>31695</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,13 +5397,13 @@
         <v>101221</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H20" s="7">
         <v>133</v>
@@ -5409,13 +5412,13 @@
         <v>87241</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>390</v>
+        <v>228</v>
       </c>
       <c r="M20" s="7">
         <v>280</v>
@@ -5424,13 +5427,13 @@
         <v>188461</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,13 +5501,13 @@
         <v>4756</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -5513,13 +5516,13 @@
         <v>2793</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -5531,10 +5534,10 @@
         <v>23</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,13 +5552,13 @@
         <v>4151</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -5564,13 +5567,13 @@
         <v>3750</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -5579,13 +5582,13 @@
         <v>7901</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>287</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,10 +5606,10 @@
         <v>402</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -5621,7 +5624,7 @@
         <v>405</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>112</v>
+        <v>273</v>
       </c>
       <c r="M24" s="7">
         <v>26</v>
@@ -5630,13 +5633,13 @@
         <v>17810</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>280</v>
+        <v>406</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5651,13 +5654,13 @@
         <v>31433</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -5666,13 +5669,13 @@
         <v>37500</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M25" s="7">
         <v>104</v>
@@ -5681,13 +5684,13 @@
         <v>68932</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5702,13 +5705,13 @@
         <v>320405</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H26" s="7">
         <v>433</v>
@@ -5717,13 +5720,13 @@
         <v>286160</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M26" s="7">
         <v>891</v>
@@ -5732,13 +5735,13 @@
         <v>606565</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP39B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP39B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19085E63-66C8-4FA2-BB28-B5A5215CAC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97747BC7-2607-4584-9605-AF1A20EFFF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{27E6E48B-DB1F-4CF6-886A-B26BFEB579B8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{91D3A7CC-5CA0-40D2-B5AF-22D035A51C59}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="434">
   <si>
     <t>Adulto según el número de personas que trabajan bajo su responsabilidad en 2007 (Tasa respuesta: 53,99%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -79,12 +79,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>4,07%</t>
+  </si>
+  <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
     <t>2,02%</t>
   </si>
   <si>
@@ -94,1228 +94,1252 @@
     <t>De 6 a 9</t>
   </si>
   <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
     <t>4,26%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
     <t>3,34%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>9,01%</t>
+    <t>9,0%</t>
   </si>
   <si>
     <t>De 1 a 5</t>
   </si>
   <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
     <t>6,02%</t>
   </si>
   <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>Ninguna</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adulto según el número de personas que trabajan bajo su responsabilidad en 2012 (Tasa respuesta: 44,59%)</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>Adulto según el número de personas que trabajan bajo su responsabilidad en 2016 (Tasa respuesta: 49,11%)</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>Ninguna</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adulto según el número de personas que trabajan bajo su responsabilidad en 2012 (Tasa respuesta: 44,59%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>Adulto según el número de personas que trabajan bajo su responsabilidad en 2016 (Tasa respuesta: 49,11%)</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
   </si>
   <si>
     <t>6,45%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
+    <t>11,08%</t>
   </si>
   <si>
     <t>9,73%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
   </si>
   <si>
     <t>86,09%</t>
   </si>
   <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
   </si>
   <si>
     <t>85,58%</t>
   </si>
   <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D99A0B-F486-435F-8414-4658AD2583D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4C05E4-7B77-49E3-B00A-5A453EAD6488}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1947,10 +1971,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>1370</v>
+        <v>733</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>18</v>
@@ -1962,10 +1986,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>733</v>
+        <v>1370</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>20</v>
@@ -1998,31 +2022,31 @@
         <v>25</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1936</v>
+        <v>647</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1936</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>647</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>30</v>
@@ -2049,10 +2073,10 @@
         <v>34</v>
       </c>
       <c r="C8" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="7">
-        <v>28883</v>
+        <v>29417</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>35</v>
@@ -2064,10 +2088,10 @@
         <v>37</v>
       </c>
       <c r="H8" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" s="7">
-        <v>29417</v>
+        <v>28883</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>38</v>
@@ -2100,25 +2124,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7">
+        <v>30797</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="7">
         <v>48</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>32189</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="7">
-        <v>46</v>
-      </c>
-      <c r="I9" s="7">
-        <v>30797</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>44</v>
@@ -2153,31 +2177,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1856</v>
+        <v>621</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1856</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>621</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>50</v>
@@ -2204,10 +2228,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>4038</v>
+        <v>3627</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>54</v>
@@ -2219,10 +2243,10 @@
         <v>56</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11" s="7">
-        <v>3627</v>
+        <v>4038</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>57</v>
@@ -2258,31 +2282,31 @@
         <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>3951</v>
+        <v>3595</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>3595</v>
+        <v>3951</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -2291,7 +2315,7 @@
         <v>7547</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>69</v>
@@ -2306,10 +2330,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="7">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D13" s="7">
-        <v>31384</v>
+        <v>33109</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>71</v>
@@ -2321,10 +2345,10 @@
         <v>73</v>
       </c>
       <c r="H13" s="7">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I13" s="7">
-        <v>33109</v>
+        <v>31384</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>74</v>
@@ -2357,10 +2381,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="7">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="D14" s="7">
-        <v>202484</v>
+        <v>172291</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>80</v>
@@ -2372,10 +2396,10 @@
         <v>82</v>
       </c>
       <c r="H14" s="7">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="I14" s="7">
-        <v>172291</v>
+        <v>202484</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>83</v>
@@ -2408,25 +2432,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>325</v>
+      </c>
+      <c r="D15" s="7">
+        <v>213243</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="7">
         <v>367</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>243713</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="7">
-        <v>325</v>
-      </c>
-      <c r="I15" s="7">
-        <v>213243</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>44</v>
@@ -2464,31 +2488,31 @@
         <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>2030</v>
+        <v>2134</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>90</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>2134</v>
+        <v>2030</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -2497,7 +2521,7 @@
         <v>4164</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>95</v>
@@ -2512,10 +2536,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>2647</v>
+        <v>3603</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2527,19 +2551,19 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>3603</v>
+        <v>2647</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -2548,13 +2572,13 @@
         <v>6250</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,31 +2590,31 @@
         <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>3718</v>
+        <v>4347</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>4347</v>
+        <v>3718</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -2599,13 +2623,13 @@
         <v>8065</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,34 +2638,34 @@
         <v>25</v>
       </c>
       <c r="C19" s="7">
+        <v>35</v>
+      </c>
+      <c r="D19" s="7">
+        <v>24107</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="7">
         <v>31</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>21394</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="7">
-        <v>35</v>
-      </c>
-      <c r="I19" s="7">
-        <v>24108</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -2650,13 +2674,13 @@
         <v>45501</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,34 +2689,34 @@
         <v>34</v>
       </c>
       <c r="C20" s="7">
+        <v>131</v>
+      </c>
+      <c r="D20" s="7">
+        <v>90052</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="7">
         <v>126</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>84066</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H20" s="7">
-        <v>131</v>
-      </c>
-      <c r="I20" s="7">
-        <v>90053</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>257</v>
@@ -2701,13 +2725,13 @@
         <v>174118</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,25 +2740,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>180</v>
+      </c>
+      <c r="D21" s="7">
+        <v>124243</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="7">
         <v>170</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>113855</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="7">
-        <v>180</v>
-      </c>
-      <c r="I21" s="7">
-        <v>124244</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>44</v>
@@ -2769,34 +2793,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2755</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="7">
         <v>6</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>3886</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H22" s="7">
-        <v>4</v>
-      </c>
-      <c r="I22" s="7">
-        <v>2755</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -2805,13 +2829,13 @@
         <v>6641</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,31 +2847,31 @@
         <v>10</v>
       </c>
       <c r="D23" s="7">
-        <v>6686</v>
+        <v>7230</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
       </c>
       <c r="I23" s="7">
-        <v>7230</v>
+        <v>6686</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -2856,13 +2880,13 @@
         <v>13915</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,34 +2895,34 @@
         <v>17</v>
       </c>
       <c r="C24" s="7">
+        <v>13</v>
+      </c>
+      <c r="D24" s="7">
+        <v>8676</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="7">
+      <c r="H24" s="7">
+        <v>14</v>
+      </c>
+      <c r="I24" s="7">
         <v>9039</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" s="7">
-        <v>13</v>
-      </c>
-      <c r="I24" s="7">
-        <v>8676</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
@@ -2907,13 +2931,13 @@
         <v>17715</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,34 +2946,34 @@
         <v>25</v>
       </c>
       <c r="C25" s="7">
+        <v>87</v>
+      </c>
+      <c r="D25" s="7">
+        <v>57863</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="7">
         <v>80</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>54714</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H25" s="7">
-        <v>87</v>
-      </c>
-      <c r="I25" s="7">
-        <v>57863</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>167</v>
@@ -2958,13 +2982,13 @@
         <v>112577</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,34 +2997,34 @@
         <v>34</v>
       </c>
       <c r="C26" s="7">
+        <v>437</v>
+      </c>
+      <c r="D26" s="7">
+        <v>291760</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H26" s="7">
         <v>475</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>315431</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H26" s="7">
-        <v>437</v>
-      </c>
-      <c r="I26" s="7">
-        <v>291760</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M26" s="7">
         <v>912</v>
@@ -3009,13 +3033,13 @@
         <v>607191</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,25 +3048,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>551</v>
+      </c>
+      <c r="D27" s="7">
+        <v>368283</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="7">
         <v>585</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>389756</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="7">
-        <v>551</v>
-      </c>
-      <c r="I27" s="7">
-        <v>368283</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>44</v>
@@ -3071,7 +3095,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3090,7 +3114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5377D8B-CF9F-442B-B48D-A4FB9CDCF0B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AADBCD-8E2A-460D-B052-DE9E4559AA12}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3107,7 +3131,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3208,34 +3232,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>174</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3244,7 +3268,7 @@
         <v>595</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
@@ -3271,7 +3295,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3286,7 +3310,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3322,7 +3346,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3337,7 +3361,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3364,7 +3388,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>2436</v>
+        <v>1955</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>180</v>
@@ -3379,16 +3403,16 @@
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>1955</v>
+        <v>2436</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -3397,13 +3421,13 @@
         <v>4391</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,34 +3436,34 @@
         <v>34</v>
       </c>
       <c r="C8" s="7">
+        <v>34</v>
+      </c>
+      <c r="D8" s="7">
+        <v>24110</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="7">
         <v>27</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>18984</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H8" s="7">
-        <v>34</v>
-      </c>
-      <c r="I8" s="7">
-        <v>24110</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>61</v>
@@ -3448,13 +3472,13 @@
         <v>43094</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,25 +3487,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>38</v>
+      </c>
+      <c r="D9" s="7">
+        <v>26660</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="7">
         <v>30</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>21420</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="7">
-        <v>38</v>
-      </c>
-      <c r="I9" s="7">
-        <v>26660</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>44</v>
@@ -3516,25 +3540,25 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1704</v>
+        <v>627</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>57</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>627</v>
+        <v>1704</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>199</v>
@@ -3543,7 +3567,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3552,13 +3576,13 @@
         <v>2332</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,34 +3591,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1395</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="7">
         <v>4</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>2424</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1395</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -3603,13 +3627,13 @@
         <v>3819</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,34 +3642,34 @@
         <v>17</v>
       </c>
       <c r="C12" s="7">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2920</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" s="7">
         <v>11</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>7496</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H12" s="7">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2920</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>98</v>
+        <v>214</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -3654,13 +3678,13 @@
         <v>10416</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>31</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,34 +3693,34 @@
         <v>25</v>
       </c>
       <c r="C13" s="7">
+        <v>27</v>
+      </c>
+      <c r="D13" s="7">
+        <v>18104</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H13" s="7">
         <v>31</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>21088</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H13" s="7">
-        <v>27</v>
-      </c>
-      <c r="I13" s="7">
-        <v>18104</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -3705,13 +3729,13 @@
         <v>39192</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,34 +3744,34 @@
         <v>34</v>
       </c>
       <c r="C14" s="7">
+        <v>240</v>
+      </c>
+      <c r="D14" s="7">
+        <v>164879</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H14" s="7">
         <v>244</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>172099</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H14" s="7">
-        <v>240</v>
-      </c>
-      <c r="I14" s="7">
-        <v>164879</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>484</v>
@@ -3756,13 +3780,13 @@
         <v>336978</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,25 +3795,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>275</v>
+      </c>
+      <c r="D15" s="7">
+        <v>187926</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="7">
         <v>292</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>204812</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="7">
-        <v>275</v>
-      </c>
-      <c r="I15" s="7">
-        <v>187926</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>44</v>
@@ -3824,34 +3848,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2755</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H16" s="7">
         <v>6</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>4003</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2755</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -3860,13 +3884,13 @@
         <v>6757</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,34 +3899,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>656</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H17" s="7">
         <v>4</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>2740</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>656</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -3911,13 +3935,13 @@
         <v>3396</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,34 +3950,34 @@
         <v>17</v>
       </c>
       <c r="C18" s="7">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7">
+        <v>7193</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H18" s="7">
         <v>3</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>1906</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H18" s="7">
-        <v>10</v>
-      </c>
-      <c r="I18" s="7">
-        <v>7193</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="M18" s="7">
         <v>13</v>
@@ -3962,13 +3986,13 @@
         <v>9099</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,34 +4001,34 @@
         <v>25</v>
       </c>
       <c r="C19" s="7">
+        <v>29</v>
+      </c>
+      <c r="D19" s="7">
+        <v>20139</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H19" s="7">
         <v>24</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>16755</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H19" s="7">
-        <v>29</v>
-      </c>
-      <c r="I19" s="7">
-        <v>20139</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="M19" s="7">
         <v>53</v>
@@ -4013,13 +4037,13 @@
         <v>36894</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,34 +4052,34 @@
         <v>34</v>
       </c>
       <c r="C20" s="7">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>71973</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H20" s="7">
         <v>118</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>82956</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H20" s="7">
-        <v>102</v>
-      </c>
-      <c r="I20" s="7">
-        <v>71973</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M20" s="7">
         <v>220</v>
@@ -4064,13 +4088,13 @@
         <v>154929</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,25 +4103,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>146</v>
+      </c>
+      <c r="D21" s="7">
+        <v>102716</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="7">
         <v>155</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>108359</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="7">
-        <v>146</v>
-      </c>
-      <c r="I21" s="7">
-        <v>102716</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>44</v>
@@ -4132,34 +4156,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>6</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3977</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H22" s="7">
         <v>8</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>5707</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H22" s="7">
-        <v>6</v>
-      </c>
-      <c r="I22" s="7">
-        <v>3977</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -4168,13 +4192,13 @@
         <v>9684</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,34 +4207,34 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
+        <v>3</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2051</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H23" s="7">
         <v>8</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>5164</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H23" s="7">
-        <v>3</v>
-      </c>
-      <c r="I23" s="7">
-        <v>2051</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -4219,13 +4243,13 @@
         <v>7215</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,34 +4258,34 @@
         <v>17</v>
       </c>
       <c r="C24" s="7">
+        <v>15</v>
+      </c>
+      <c r="D24" s="7">
+        <v>10114</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H24" s="7">
         <v>14</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>9402</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H24" s="7">
-        <v>15</v>
-      </c>
-      <c r="I24" s="7">
-        <v>10114</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="M24" s="7">
         <v>29</v>
@@ -4270,13 +4294,13 @@
         <v>19515</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,34 +4309,34 @@
         <v>25</v>
       </c>
       <c r="C25" s="7">
+        <v>59</v>
+      </c>
+      <c r="D25" s="7">
+        <v>40198</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H25" s="7">
         <v>58</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>40279</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H25" s="7">
-        <v>59</v>
-      </c>
-      <c r="I25" s="7">
-        <v>40198</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="M25" s="7">
         <v>117</v>
@@ -4321,13 +4345,13 @@
         <v>80477</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,34 +4360,34 @@
         <v>34</v>
       </c>
       <c r="C26" s="7">
+        <v>376</v>
+      </c>
+      <c r="D26" s="7">
+        <v>260962</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H26" s="7">
         <v>389</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>274039</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="H26" s="7">
-        <v>376</v>
-      </c>
-      <c r="I26" s="7">
-        <v>260962</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="M26" s="7">
         <v>765</v>
@@ -4372,13 +4396,13 @@
         <v>535001</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,25 +4411,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>459</v>
+      </c>
+      <c r="D27" s="7">
+        <v>317302</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="7">
         <v>477</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>334591</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="7">
-        <v>459</v>
-      </c>
-      <c r="I27" s="7">
-        <v>317302</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>44</v>
@@ -4434,7 +4458,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4453,7 +4477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AD31D8-F78D-4184-AFF7-D7C62B38044C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B297C5DB-6405-4A0F-A3CE-2B33D32FAF81}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4470,7 +4494,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4583,7 +4607,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4598,7 +4622,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4613,7 +4637,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,34 +4646,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>540</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>540</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4658,13 +4682,13 @@
         <v>540</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>316</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,34 +4697,34 @@
         <v>17</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>564</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>0</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>564</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4709,13 +4733,13 @@
         <v>564</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,34 +4748,34 @@
         <v>25</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>1192</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4760,13 +4784,13 @@
         <v>1192</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,34 +4799,34 @@
         <v>34</v>
       </c>
       <c r="C8" s="7">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7">
+        <v>11700</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="7">
         <v>25</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>18271</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="7">
-        <v>17</v>
-      </c>
-      <c r="I8" s="7">
-        <v>11700</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -4811,13 +4835,13 @@
         <v>29971</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,25 +4850,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>19</v>
+      </c>
+      <c r="D9" s="7">
+        <v>12804</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="7">
         <v>27</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>19463</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="7">
-        <v>19</v>
-      </c>
-      <c r="I9" s="7">
-        <v>12804</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>44</v>
@@ -4882,31 +4906,31 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>549</v>
+        <v>722</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>337</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>330</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>722</v>
+        <v>549</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>332</v>
+        <v>103</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4915,13 +4939,13 @@
         <v>1270</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>32</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,34 +4954,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1128</v>
+        <v>753</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>340</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>753</v>
+        <v>1128</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -4966,13 +4990,13 @@
         <v>1881</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>335</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,34 +5005,34 @@
         <v>17</v>
       </c>
       <c r="C12" s="7">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2758</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H12" s="7">
         <v>10</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>6741</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="H12" s="7">
-        <v>4</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2758</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>340</v>
+        <v>207</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -5017,13 +5041,13 @@
         <v>9499</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>133</v>
+        <v>347</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>67</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,34 +5056,34 @@
         <v>25</v>
       </c>
       <c r="C13" s="7">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7">
+        <v>18639</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H13" s="7">
         <v>26</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>17407</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="H13" s="7">
-        <v>29</v>
-      </c>
-      <c r="I13" s="7">
-        <v>18639</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -5068,13 +5092,13 @@
         <v>36046</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,34 +5107,34 @@
         <v>34</v>
       </c>
       <c r="C14" s="7">
+        <v>283</v>
+      </c>
+      <c r="D14" s="7">
+        <v>187219</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H14" s="7">
         <v>286</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>200913</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="H14" s="7">
-        <v>283</v>
-      </c>
-      <c r="I14" s="7">
-        <v>187219</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="M14" s="7">
         <v>569</v>
@@ -5119,13 +5143,13 @@
         <v>388133</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,25 +5158,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>318</v>
+      </c>
+      <c r="D15" s="7">
+        <v>210090</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="7">
         <v>325</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>226738</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="7">
-        <v>318</v>
-      </c>
-      <c r="I15" s="7">
-        <v>210090</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>44</v>
@@ -5187,34 +5211,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2072</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H16" s="7">
         <v>6</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>4207</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2072</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>363</v>
-      </c>
       <c r="K16" s="7" t="s">
-        <v>245</v>
+        <v>368</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -5223,13 +5247,13 @@
         <v>6279</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,31 +5265,31 @@
         <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>3023</v>
+        <v>2458</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>373</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>2458</v>
+        <v>3023</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -5274,13 +5298,13 @@
         <v>5480</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>370</v>
+        <v>50</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,34 +5313,34 @@
         <v>17</v>
       </c>
       <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3066</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H18" s="7">
         <v>7</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>4680</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H18" s="7">
-        <v>4</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3066</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>242</v>
+        <v>151</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -5325,13 +5349,13 @@
         <v>7747</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,34 +5364,34 @@
         <v>25</v>
       </c>
       <c r="C19" s="7">
+        <v>28</v>
+      </c>
+      <c r="D19" s="7">
+        <v>18861</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H19" s="7">
         <v>19</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>12834</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H19" s="7">
-        <v>28</v>
-      </c>
-      <c r="I19" s="7">
-        <v>18861</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -5376,13 +5400,13 @@
         <v>31695</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>385</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,34 +5415,34 @@
         <v>34</v>
       </c>
       <c r="C20" s="7">
+        <v>133</v>
+      </c>
+      <c r="D20" s="7">
+        <v>87241</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H20" s="7">
         <v>147</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>101221</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="H20" s="7">
-        <v>133</v>
-      </c>
-      <c r="I20" s="7">
-        <v>87241</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>228</v>
+        <v>398</v>
       </c>
       <c r="M20" s="7">
         <v>280</v>
@@ -5427,13 +5451,13 @@
         <v>188461</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,25 +5466,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>172</v>
+      </c>
+      <c r="D21" s="7">
+        <v>113697</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="7">
         <v>183</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>125965</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="7">
-        <v>172</v>
-      </c>
-      <c r="I21" s="7">
-        <v>113697</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>44</v>
@@ -5495,34 +5519,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2793</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H22" s="7">
         <v>7</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>4756</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="H22" s="7">
-        <v>4</v>
-      </c>
-      <c r="I22" s="7">
-        <v>2793</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>397</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -5534,10 +5558,10 @@
         <v>23</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>399</v>
+        <v>58</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,31 +5573,31 @@
         <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>4151</v>
+        <v>3750</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>400</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
       </c>
       <c r="I23" s="7">
-        <v>3750</v>
+        <v>4151</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>284</v>
+        <v>407</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -5582,13 +5606,13 @@
         <v>7901</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,34 +5621,34 @@
         <v>17</v>
       </c>
       <c r="C24" s="7">
+        <v>9</v>
+      </c>
+      <c r="D24" s="7">
+        <v>6388</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H24" s="7">
         <v>17</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>11422</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="H24" s="7">
-        <v>9</v>
-      </c>
-      <c r="I24" s="7">
-        <v>6388</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>405</v>
+        <v>288</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>273</v>
+        <v>413</v>
       </c>
       <c r="M24" s="7">
         <v>26</v>
@@ -5633,13 +5657,13 @@
         <v>17810</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,34 +5672,34 @@
         <v>25</v>
       </c>
       <c r="C25" s="7">
+        <v>57</v>
+      </c>
+      <c r="D25" s="7">
+        <v>37500</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="H25" s="7">
         <v>47</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>31433</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H25" s="7">
-        <v>57</v>
-      </c>
-      <c r="I25" s="7">
-        <v>37500</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="M25" s="7">
         <v>104</v>
@@ -5684,13 +5708,13 @@
         <v>68932</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,34 +5723,34 @@
         <v>34</v>
       </c>
       <c r="C26" s="7">
+        <v>433</v>
+      </c>
+      <c r="D26" s="7">
+        <v>286160</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="H26" s="7">
         <v>458</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>320405</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="H26" s="7">
-        <v>433</v>
-      </c>
-      <c r="I26" s="7">
-        <v>286160</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="M26" s="7">
         <v>891</v>
@@ -5735,13 +5759,13 @@
         <v>606565</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,25 +5774,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>509</v>
+      </c>
+      <c r="D27" s="7">
+        <v>336591</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="7">
         <v>535</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>372166</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="7">
-        <v>509</v>
-      </c>
-      <c r="I27" s="7">
-        <v>336591</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>44</v>
@@ -5797,7 +5821,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
